--- a/data/trans_orig/P34B02-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P34B02-Clase-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2942210239108252</v>
+        <v>0.2825380494432366</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3573230555567393</v>
+        <v>0.349079438068367</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8150727751783987</v>
+        <v>0.8100479773775392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1803798635415766</v>
+        <v>0.1757180909509687</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3703441637719613</v>
+        <v>0.3682914343404477</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9671948589595942</v>
+        <v>0.9561350990253904</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.270454376859576</v>
+        <v>0.2685912977646798</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3952595089081169</v>
+        <v>0.38987222955381</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9148255420151101</v>
+        <v>0.9220348492940137</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5387997601017274</v>
+        <v>0.5297921947869086</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6252709903008695</v>
+        <v>0.6302915054574743</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.121860646938257</v>
+        <v>1.140019029237088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4596034389640188</v>
+        <v>0.457386803684122</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6888349385285522</v>
+        <v>0.676042424613171</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.298868975872258</v>
+        <v>1.289790082510079</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4479508735751112</v>
+        <v>0.4503855860750913</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6065177293110829</v>
+        <v>0.6003773237074087</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.149703928864566</v>
+        <v>1.143366045842533</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.5825437359145148</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9754786197882884</v>
+        <v>0.9754786197882883</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.2779615951587016</v>
@@ -760,7 +760,7 @@
         <v>0.4105672690911902</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.9484300514857855</v>
+        <v>0.9484300514857856</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.2872281129211701</v>
@@ -769,7 +769,7 @@
         <v>0.4971238307829781</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.962861979430038</v>
+        <v>0.9628619794300379</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2135161699048428</v>
+        <v>0.2079661499493351</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4468374942317496</v>
+        <v>0.4277449857202237</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7819348801730619</v>
+        <v>0.8111740183905349</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.182032760718318</v>
+        <v>0.1783715335472252</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2944355003882013</v>
+        <v>0.2934660871833246</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8268675472444739</v>
+        <v>0.8105039125613797</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2201057853182159</v>
+        <v>0.222209075350446</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3993150193784813</v>
+        <v>0.4007272127575807</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.846526878346118</v>
+        <v>0.8471193757596885</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4044765816315321</v>
+        <v>0.4065718847398192</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7536475665430546</v>
+        <v>0.7635417109399101</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.167477018424188</v>
+        <v>1.165876575648746</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4236651232727443</v>
+        <v>0.4260006064020148</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5972941693142346</v>
+        <v>0.6028378362854089</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1.097724427177989</v>
+        <v>1.10267835525798</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3657352196187342</v>
+        <v>0.3756212694778188</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.613549632647902</v>
+        <v>0.6250498360968759</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.092584766856541</v>
+        <v>1.07712052760582</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.3970983144410903</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.5811265963092416</v>
+        <v>0.5811265963092415</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3136645027461647</v>
@@ -878,7 +878,7 @@
         <v>0.3875124651855861</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.7561429941581923</v>
+        <v>0.7561429941581922</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2420206387535737</v>
+        <v>0.246955022166205</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2840574144875415</v>
+        <v>0.2885923393298437</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6810869409225573</v>
+        <v>0.6739669494149922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1514005936333657</v>
+        <v>0.1459308374602103</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2375710162735797</v>
+        <v>0.2248728717357565</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4269829894724733</v>
+        <v>0.4259795446410293</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2376057960467755</v>
+        <v>0.2392848143351819</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2931494780254805</v>
+        <v>0.3023777636442462</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.616479504054676</v>
+        <v>0.6296130162556683</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4580652504301326</v>
+        <v>0.4541363692510479</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5236457960435512</v>
+        <v>0.5235036058439263</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.032784659838021</v>
+        <v>1.007258944713732</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4239141206287316</v>
+        <v>0.4261935377286613</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6305448306332537</v>
+        <v>0.6199978083600143</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8205246069695108</v>
+        <v>0.8343518578895537</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4062381888294262</v>
+        <v>0.4070067551209792</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4869554869026284</v>
+        <v>0.5043016596266309</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8942391602306546</v>
+        <v>0.8997204311971086</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.360253215485539</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8688057851022249</v>
+        <v>0.8688057851022246</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.2158052538261144</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1915528474944163</v>
+        <v>0.1900849765162874</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2925419721522317</v>
+        <v>0.2893946444921651</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7633427228067867</v>
+        <v>0.7599859871223281</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1492847221284148</v>
+        <v>0.1566164547048721</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2291020842157957</v>
+        <v>0.2261814108578898</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6118313675812335</v>
+        <v>0.6113663821341808</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1900660320906733</v>
+        <v>0.1871389617527734</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2834311687010992</v>
+        <v>0.2804659374458169</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7235732780527898</v>
+        <v>0.7135443649524085</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3194616371085376</v>
+        <v>0.3145863495564278</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4490189146913195</v>
+        <v>0.440804379260916</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.01020662028258</v>
+        <v>1.006534615664561</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3107438948982612</v>
+        <v>0.3075222831417376</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3745488371315125</v>
+        <v>0.3658641670146422</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8131295756440582</v>
+        <v>0.8196880987201393</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2877954178581537</v>
+        <v>0.2793206248919221</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3936835537972208</v>
+        <v>0.3891401976151924</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8792317364569159</v>
+        <v>0.8795857311644607</v>
       </c>
     </row>
     <row r="16">
@@ -1078,7 +1078,7 @@
         <v>0.3272482673736168</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7875394976343475</v>
+        <v>0.7875394976343473</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.116957899867882</v>
@@ -1096,7 +1096,7 @@
         <v>0.3075636343910695</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6388181206586848</v>
+        <v>0.6388181206586849</v>
       </c>
     </row>
     <row r="17">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2411032948726355</v>
+        <v>0.2469193271934725</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2375504976981592</v>
+        <v>0.2386902333264797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.632402560112968</v>
+        <v>0.6321732693915947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0750723560742217</v>
+        <v>0.07390617735124363</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2078146512114925</v>
+        <v>0.2133902753884439</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4475956501280166</v>
+        <v>0.4580384020269493</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1581303652797066</v>
+        <v>0.1580846366929698</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2491815608529304</v>
+        <v>0.2490800079777789</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5580155210200834</v>
+        <v>0.5678624856820398</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4976339418029273</v>
+        <v>0.489860376653501</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4445472999087183</v>
+        <v>0.4344797067115311</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9464152126233998</v>
+        <v>0.9698399458854402</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1766453734630576</v>
+        <v>0.175735769730921</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3951939554165069</v>
+        <v>0.3817740964793839</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6384765105246613</v>
+        <v>0.6488897812819368</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2685594463050299</v>
+        <v>0.2750929641246224</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3717813038015952</v>
+        <v>0.3801386457037371</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7343481619113243</v>
+        <v>0.7382700598240458</v>
       </c>
     </row>
     <row r="19">
@@ -1196,7 +1196,7 @@
         <v>0.1909833545437559</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.483354197988356</v>
+        <v>0.4833541979883562</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.2857650132152166</v>
@@ -1205,7 +1205,7 @@
         <v>0.2881520384784746</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.7533780630533188</v>
+        <v>0.7533780630533186</v>
       </c>
     </row>
     <row r="20">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3270930069765173</v>
+        <v>0.3267550971757203</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4773490507411438</v>
+        <v>0.4792525760319658</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.303931555365823</v>
+        <v>1.34526692218556</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1911122438924489</v>
+        <v>0.1914828150921032</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.145126200510513</v>
+        <v>0.1442780156852566</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3950927914147079</v>
+        <v>0.4009101989367635</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2317834635156507</v>
+        <v>0.2366256272541886</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2354946307848946</v>
+        <v>0.2360232663195485</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6335287840997766</v>
+        <v>0.6312142331553521</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6452482313804394</v>
+        <v>0.6255544090993557</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8704382754171054</v>
+        <v>0.8908716079845126</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.174889861681866</v>
+        <v>2.147742477287701</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3109185322659604</v>
+        <v>0.3122767491145484</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2476317640598219</v>
+        <v>0.2455693292487731</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5899700877073666</v>
+        <v>0.5794014706673168</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3498262038671171</v>
+        <v>0.3507010005976522</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.359221443042663</v>
+        <v>0.3566571710626758</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.875866239591619</v>
+        <v>0.8966044025407796</v>
       </c>
     </row>
     <row r="22">
@@ -1296,7 +1296,7 @@
         <v>0.4223597145326426</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9373856774912784</v>
+        <v>0.9373856774912782</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.2180833410229371</v>
@@ -1314,7 +1314,7 @@
         <v>0.3591942906514304</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.8103664157348691</v>
+        <v>0.8103664157348694</v>
       </c>
     </row>
     <row r="23">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2809045391102041</v>
+        <v>0.2814104545558389</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3765087423847039</v>
+        <v>0.3760827178323659</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8665218612163278</v>
+        <v>0.8644331838352752</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1904707016592708</v>
+        <v>0.1860391437114059</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2601334839170573</v>
+        <v>0.2621145332795654</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6445216882956883</v>
+        <v>0.6442512019047651</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2411880799986776</v>
+        <v>0.243945115552782</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.328529155936477</v>
+        <v>0.329432976759867</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7703688292839381</v>
+        <v>0.7682580029863866</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3608322646365784</v>
+        <v>0.3620610704913424</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4698514772642356</v>
+        <v>0.4695021450567475</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.012784606175038</v>
+        <v>1.012527331270581</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2530608184821171</v>
+        <v>0.2516715875309621</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3358244989399036</v>
+        <v>0.3381445464577856</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7425169261135868</v>
+        <v>0.7402143741868455</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2941058223386404</v>
+        <v>0.2966368455980328</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3891145931844406</v>
+        <v>0.3904740447503253</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8521364360057858</v>
+        <v>0.8563963037770174</v>
       </c>
     </row>
     <row r="25">
